--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo ThinkBook\Documents\Thesis\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF1FD4E-29D8-4F99-92A5-5E7688FA6603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B7196-E31A-47B7-888D-10B626D21902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="25">
   <si>
     <t>Epochs</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>2.008 hours</t>
+  </si>
+  <si>
+    <t>512x512</t>
+  </si>
+  <si>
+    <t>320x320</t>
+  </si>
+  <si>
+    <t>Training</t>
   </si>
 </sst>
 </file>
@@ -162,7 +171,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -449,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -464,7 +480,7 @@
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -585,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I13" si="0">_xlfn.CONCAT(C3, "_", D3, "e_",E3, "p_",F3, "b_",G3, "_",A3,"_",B3)</f>
+        <f t="shared" ref="I3:I12" si="0">_xlfn.CONCAT(C3, "_", D3, "e_",E3, "p_",F3, "b_",G3, "_",A3,"_",B3)</f>
         <v>yolov8n_100e_0p_16b_Adam_640x640_0.2</v>
       </c>
     </row>
@@ -876,35 +892,8 @@
         <v>8</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C13, "_", D13, "e_",E13, "p_",F13, "b_",G13, "_",A13,"_",B13)</f>
         <v>yolov8n_300e_50p_32b_SGD_640x640_0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f>_xlfn.CONCAT(C14, "_", D14, "e_",E14, "p_",F14, "b_",G14, "_",A14,"_",B14)</f>
-        <v>yolov8n_100e_0p_16b_auto_640x640_0.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -912,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -924,14 +913,17 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f t="shared" ref="I15:I25" si="1">_xlfn.CONCAT(C15, "_", D15, "e_",E15, "p_",F15, "b_",G15, "_",A15,"_",B15)</f>
-        <v>yolov8n_100e_0p_16b_Adam_640x640_0.1</v>
+        <f t="shared" ref="I15:I17" si="1">_xlfn.CONCAT(C15, "_", D15, "e_",E15, "p_",F15, "b_",G15, "_",A15,"_",B15)</f>
+        <v>yolov8n_100e_0p_32b_auto_640x640_0.06</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -939,7 +931,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -951,14 +943,14 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>yolov8n_100e_0p_16b_SGD_640x640_0.1</v>
+        <v>yolov8n_100e_0p_32b_Adam_640x640_0.06</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -981,11 +973,11 @@
         <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>yolov8n_100e_0p_32b_auto_640x640_0.1</v>
+        <v>yolov8n_100e_0p_32b_SGD_640x640_0.06</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -993,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -1005,14 +997,14 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>yolov8n_100e_0p_32b_Adam_640x640_0.1</v>
+        <f t="shared" ref="I18:I20" si="2">_xlfn.CONCAT(C18, "_", D18, "e_",E18, "p_",F18, "b_",G18, "_",A18,"_",B18)</f>
+        <v>yolov8n_100e_0p_16b_auto_640x640_0.06</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1020,7 +1012,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
@@ -1032,14 +1024,14 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>yolov8n_100e_0p_32b_SGD_640x640_0.1</v>
+        <f t="shared" si="2"/>
+        <v>yolov8n_100e_0p_16b_Adam_640x640_0.06</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1047,170 +1039,541 @@
         <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>yolov8n_300e_50p_16b_auto_640x640_0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>300</v>
-      </c>
-      <c r="E21" s="1">
-        <v>50</v>
-      </c>
-      <c r="F21" s="1">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>yolov8n_300e_50p_16b_Adam_640x640_0.1</v>
+        <f t="shared" si="2"/>
+        <v>yolov8n_100e_0p_16b_SGD_640x640_0.06</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>yolov8n_300e_50p_16b_SGD_640x640_0.1</v>
+        <f t="shared" ref="I22:I27" si="3">_xlfn.CONCAT(C22, "_", D22, "e_",E22, "p_",F22, "b_",G22, "_",A22,"_",B22)</f>
+        <v>yolov8n_100e_0p_32b_auto_512x512_0.07</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>yolov8n_300e_50p_32b_auto_640x640_0.1</v>
+        <f t="shared" si="3"/>
+        <v>yolov8n_100e_0p_32b_Adam_512x512_0.07</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>32</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>yolov8n_300e_50p_32b_Adam_640x640_0.1</v>
+        <f t="shared" si="3"/>
+        <v>yolov8n_100e_0p_32b_SGD_512x512_0.07</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>yolov8n_100e_0p_16b_auto_512x512_0.07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>100</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>yolov8n_100e_0p_16b_Adam_512x512_0.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>yolov8n_100e_0p_16b_SGD_512x512_0.07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" ref="I29:I40" si="4">_xlfn.CONCAT(C29, "_", D29, "e_",E29, "p_",F29, "b_",G29, "_",A29,"_",B29)</f>
+        <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_100e_0p_32b_Adam_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>32</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_100e_0p_32b_SGD_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_100e_0p_16b_auto_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_100e_0p_16b_Adam_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_100e_0p_16b_SGD_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
         <v>300</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E35" s="1">
         <v>50</v>
       </c>
-      <c r="F25" s="1">
-        <v>32</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F35" s="1">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_300e_50p_32b_auto_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>300</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1">
+        <v>32</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_300e_50p_32b_Adam_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>300</v>
+      </c>
+      <c r="E37" s="1">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1">
+        <v>32</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>yolov8n_300e_50p_32b_SGD_640x640_0.1</v>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_300e_50p_32b_SGD_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>300</v>
+      </c>
+      <c r="E38" s="1">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_300e_50p_16b_auto_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>300</v>
+      </c>
+      <c r="E39" s="1">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1">
+        <v>16</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_300e_50p_16b_Adam_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>300</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>yolov8n_300e_50p_16b_SGD_320x320_0.12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Training"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{6A84E42F-A15A-48E5-9772-2C93CECE7943}">
+      <formula1>"Done, Training"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo ThinkBook\Documents\Thesis\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B7196-E31A-47B7-888D-10B626D21902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A8A30-77B4-45E7-8A09-F5CF58662C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="25">
   <si>
     <t>Epochs</t>
   </si>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -837,6 +837,9 @@
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>yolov8n_300e_50p_32b_auto_640x640_0.2</v>
@@ -1003,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f t="shared" ref="I18:I20" si="2">_xlfn.CONCAT(C18, "_", D18, "e_",E18, "p_",F18, "b_",G18, "_",A18,"_",B18)</f>
+        <f t="shared" ref="I18:I23" si="2">_xlfn.CONCAT(C18, "_", D18, "e_",E18, "p_",F18, "b_",G18, "_",A18,"_",B18)</f>
         <v>yolov8n_100e_0p_16b_auto_640x640_0.06</v>
       </c>
     </row>
@@ -1061,177 +1064,207 @@
         <v>yolov8n_100e_0p_16b_SGD_640x640_0.06</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>300</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>yolov8n_300e_50p_32b_auto_640x640_0.06</v>
+      </c>
+    </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1">
         <v>32</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" ref="I22:I27" si="3">_xlfn.CONCAT(C22, "_", D22, "e_",E22, "p_",F22, "b_",G22, "_",A22,"_",B22)</f>
-        <v>yolov8n_100e_0p_32b_auto_512x512_0.07</v>
+        <f t="shared" si="2"/>
+        <v>yolov8n_300e_50p_32b_Adam_640x640_0.06</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1">
         <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>yolov8n_100e_0p_32b_Adam_512x512_0.07</v>
+        <f t="shared" si="2"/>
+        <v>yolov8n_300e_50p_32b_SGD_640x640_0.06</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>yolov8n_100e_0p_32b_SGD_512x512_0.07</v>
+        <f t="shared" ref="I24:I26" si="3">_xlfn.CONCAT(C24, "_", D24, "e_",E24, "p_",F24, "b_",G24, "_",A24,"_",B24)</f>
+        <v>yolov8n_300e_50p_16b_auto_640x640_0.06</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F25" s="1">
         <v>16</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>yolov8n_100e_0p_16b_auto_512x512_0.07</v>
+        <v>yolov8n_300e_50p_16b_Adam_640x640_0.06</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1">
         <v>16</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>yolov8n_100e_0p_16b_Adam_512x512_0.07</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+        <v>yolov8n_300e_50p_16b_SGD_640x640_0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1">
-        <v>100</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>16</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>yolov8n_100e_0p_16b_SGD_512x512_0.07</v>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" ref="I28:I33" si="4">_xlfn.CONCAT(C28, "_", D28, "e_",E28, "p_",F28, "b_",G28, "_",A28,"_",B28)</f>
+        <v>yolov8n_100e_0p_32b_auto_512x512_0.07</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -1246,22 +1279,19 @@
         <v>32</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f t="shared" ref="I29:I40" si="4">_xlfn.CONCAT(C29, "_", D29, "e_",E29, "p_",F29, "b_",G29, "_",A29,"_",B29)</f>
-        <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
+        <f t="shared" si="4"/>
+        <v>yolov8n_100e_0p_32b_Adam_512x512_0.07</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
@@ -1276,19 +1306,19 @@
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>yolov8n_100e_0p_32b_Adam_320x320_0.12</v>
+        <v>yolov8n_100e_0p_32b_SGD_512x512_0.07</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
@@ -1300,22 +1330,22 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>yolov8n_100e_0p_32b_SGD_320x320_0.12</v>
+        <v>yolov8n_100e_0p_16b_auto_512x512_0.07</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
@@ -1330,19 +1360,19 @@
         <v>16</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>yolov8n_100e_0p_16b_auto_320x320_0.12</v>
+        <v>yolov8n_100e_0p_16b_Adam_512x512_0.07</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
@@ -1357,46 +1387,49 @@
         <v>16</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>yolov8n_100e_0p_16b_Adam_320x320_0.12</v>
+        <v>yolov8n_100e_0p_16b_SGD_512x512_0.07</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F34" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>yolov8n_100e_0p_16b_SGD_320x320_0.12</v>
+        <f t="shared" ref="I34:I39" si="5">_xlfn.CONCAT(C34, "_", D34, "e_",E34, "p_",F34, "b_",G34, "_",A34,"_",B34)</f>
+        <v>yolov8n_300e_50p_32b_auto_512x512_0.07</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
@@ -1411,22 +1444,19 @@
         <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>yolov8n_300e_50p_32b_auto_320x320_0.12</v>
+        <f t="shared" si="5"/>
+        <v>yolov8n_300e_50p_32b_Adam_512x512_0.07</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -1441,19 +1471,19 @@
         <v>32</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>yolov8n_300e_50p_32b_Adam_320x320_0.12</v>
+        <f t="shared" si="5"/>
+        <v>yolov8n_300e_50p_32b_SGD_512x512_0.07</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
@@ -1465,22 +1495,22 @@
         <v>50</v>
       </c>
       <c r="F37" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>yolov8n_300e_50p_32b_SGD_320x320_0.12</v>
+        <f t="shared" si="5"/>
+        <v>yolov8n_300e_50p_16b_auto_512x512_0.07</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
@@ -1495,64 +1525,367 @@
         <v>16</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>yolov8n_300e_50p_16b_auto_320x320_0.12</v>
+        <f t="shared" si="5"/>
+        <v>yolov8n_300e_50p_16b_Adam_512x512_0.07</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>300</v>
+      </c>
+      <c r="E39" s="1">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1">
+        <v>16</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>yolov8n_300e_50p_16b_SGD_512x512_0.07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B41" s="1">
         <v>0.12</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1">
-        <v>300</v>
-      </c>
-      <c r="E39" s="1">
-        <v>50</v>
-      </c>
-      <c r="F39" s="1">
-        <v>16</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>32</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" ref="I41:I52" si="6">_xlfn.CONCAT(C41, "_", D41, "e_",E41, "p_",F41, "b_",G41, "_",A41,"_",B41)</f>
+        <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>32</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_100e_0p_32b_Adam_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>32</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_100e_0p_32b_SGD_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1">
+        <v>100</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_100e_0p_16b_auto_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_100e_0p_16b_Adam_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>100</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_100e_0p_16b_SGD_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>300</v>
+      </c>
+      <c r="E47" s="1">
+        <v>50</v>
+      </c>
+      <c r="F47" s="1">
+        <v>32</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_300e_50p_32b_auto_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>300</v>
+      </c>
+      <c r="E48" s="1">
+        <v>50</v>
+      </c>
+      <c r="F48" s="1">
+        <v>32</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_300e_50p_32b_Adam_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>300</v>
+      </c>
+      <c r="E49" s="1">
+        <v>50</v>
+      </c>
+      <c r="F49" s="1">
+        <v>32</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_300e_50p_32b_SGD_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1">
+        <v>300</v>
+      </c>
+      <c r="E50" s="1">
+        <v>50</v>
+      </c>
+      <c r="F50" s="1">
+        <v>16</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_300e_50p_16b_auto_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>300</v>
+      </c>
+      <c r="E51" s="1">
+        <v>50</v>
+      </c>
+      <c r="F51" s="1">
+        <v>16</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>yolov8n_300e_50p_16b_Adam_320x320_0.12</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B52" s="1">
         <v>0.12</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1">
-        <v>300</v>
-      </c>
-      <c r="E40" s="1">
-        <v>50</v>
-      </c>
-      <c r="F40" s="1">
-        <v>16</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>300</v>
+      </c>
+      <c r="E52" s="1">
+        <v>50</v>
+      </c>
+      <c r="F52" s="1">
+        <v>16</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>yolov8n_300e_50p_16b_SGD_320x320_0.12</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo ThinkBook\Documents\Thesis\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00FILES\Thesis2\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A8A30-77B4-45E7-8A09-F5CF58662C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7677E-7A97-4198-A987-153B330080BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="27">
   <si>
     <t>Epochs</t>
   </si>
@@ -108,7 +108,13 @@
     <t>320x320</t>
   </si>
   <si>
-    <t>Training</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>AdamW(lr=0.002, momentum=0.9)</t>
+  </si>
+  <si>
+    <t>SGD(lr=0.01, momentum=0.9)</t>
   </si>
 </sst>
 </file>
@@ -465,31 +471,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -532,8 +539,11 @@
       <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -578,7 +588,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -605,7 +615,7 @@
         <v>yolov8n_100e_0p_16b_Adam_640x640_0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -632,7 +642,7 @@
         <v>yolov8n_100e_0p_16b_SGD_640x640_0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -677,7 +687,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -707,7 +717,7 @@
         <v>yolov8n_100e_0p_32b_Adam_640x640_0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -734,7 +744,7 @@
         <v>yolov8n_100e_0p_32b_SGD_640x640_0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -761,7 +771,7 @@
         <v>yolov8n_300e_50p_16b_auto_640x640_0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -788,7 +798,7 @@
         <v>yolov8n_300e_50p_16b_Adam_640x640_0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -815,7 +825,7 @@
         <v>yolov8n_300e_50p_16b_SGD_640x640_0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -836,16 +846,13 @@
       </c>
       <c r="G11" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>yolov8n_300e_50p_32b_auto_640x640_0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -872,7 +879,7 @@
         <v>yolov8n_300e_50p_32b_Adam_640x640_0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -899,7 +906,7 @@
         <v>yolov8n_300e_50p_32b_SGD_640x640_0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -929,7 +936,7 @@
         <v>yolov8n_100e_0p_32b_auto_640x640_0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -956,7 +963,7 @@
         <v>yolov8n_100e_0p_32b_Adam_640x640_0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -983,7 +990,7 @@
         <v>yolov8n_100e_0p_32b_SGD_640x640_0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,13 +1011,19 @@
       </c>
       <c r="G18" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" ref="I18:I23" si="2">_xlfn.CONCAT(C18, "_", D18, "e_",E18, "p_",F18, "b_",G18, "_",A18,"_",B18)</f>
         <v>yolov8n_100e_0p_16b_auto_640x640_0.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1050,7 @@
         <v>yolov8n_100e_0p_16b_Adam_640x640_0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1077,7 @@
         <v>yolov8n_100e_0p_16b_SGD_640x640_0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1107,7 @@
         <v>yolov8n_300e_50p_32b_auto_640x640_0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1121,7 +1134,7 @@
         <v>yolov8n_300e_50p_32b_Adam_640x640_0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>yolov8n_300e_50p_32b_SGD_640x640_0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,13 +1182,19 @@
       </c>
       <c r="G24" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" ref="I24:I26" si="3">_xlfn.CONCAT(C24, "_", D24, "e_",E24, "p_",F24, "b_",G24, "_",A24,"_",B24)</f>
         <v>yolov8n_300e_50p_16b_auto_640x640_0.06</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,7 +1221,7 @@
         <v>yolov8n_300e_50p_16b_Adam_640x640_0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +1248,7 @@
         <v>yolov8n_300e_50p_16b_SGD_640x640_0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1278,7 @@
         <v>yolov8n_100e_0p_32b_auto_512x512_0.07</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,7 +1305,7 @@
         <v>yolov8n_100e_0p_32b_Adam_512x512_0.07</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +1332,7 @@
         <v>yolov8n_100e_0p_32b_SGD_512x512_0.07</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1334,13 +1353,19 @@
       </c>
       <c r="G31" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="4"/>
         <v>yolov8n_100e_0p_16b_auto_512x512_0.07</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1367,7 +1392,7 @@
         <v>yolov8n_100e_0p_16b_Adam_512x512_0.07</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1394,7 +1419,7 @@
         <v>yolov8n_100e_0p_16b_SGD_512x512_0.07</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +1449,7 @@
         <v>yolov8n_300e_50p_32b_auto_512x512_0.07</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1476,7 @@
         <v>yolov8n_300e_50p_32b_Adam_512x512_0.07</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1503,7 @@
         <v>yolov8n_300e_50p_32b_SGD_512x512_0.07</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -1499,13 +1524,19 @@
       </c>
       <c r="G37" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I37" s="1" t="str">
         <f t="shared" si="5"/>
         <v>yolov8n_300e_50p_16b_auto_512x512_0.07</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -1532,7 +1563,7 @@
         <v>yolov8n_300e_50p_16b_Adam_512x512_0.07</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1590,7 @@
         <v>yolov8n_300e_50p_16b_SGD_512x512_0.07</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -1589,7 +1620,7 @@
         <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -1616,7 +1647,7 @@
         <v>yolov8n_100e_0p_32b_Adam_320x320_0.12</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
@@ -1643,7 +1674,7 @@
         <v>yolov8n_100e_0p_32b_SGD_320x320_0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -1664,13 +1695,19 @@
       </c>
       <c r="G44" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I44" s="1" t="str">
         <f t="shared" si="6"/>
         <v>yolov8n_100e_0p_16b_auto_320x320_0.12</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,7 +1734,7 @@
         <v>yolov8n_100e_0p_16b_Adam_320x320_0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1724,7 +1761,7 @@
         <v>yolov8n_100e_0p_16b_SGD_320x320_0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1791,7 @@
         <v>yolov8n_300e_50p_32b_auto_320x320_0.12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -1781,7 +1818,7 @@
         <v>yolov8n_300e_50p_32b_Adam_320x320_0.12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
@@ -1808,7 +1845,7 @@
         <v>yolov8n_300e_50p_32b_SGD_320x320_0.12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
@@ -1829,13 +1866,19 @@
       </c>
       <c r="G50" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I50" s="1" t="str">
         <f t="shared" si="6"/>
         <v>yolov8n_300e_50p_16b_auto_320x320_0.12</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -1862,7 +1905,7 @@
         <v>yolov8n_300e_50p_16b_Adam_320x320_0.12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>23</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00FILES\Thesis2\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7677E-7A97-4198-A987-153B330080BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FF4E2-02B9-49BA-B283-3E015624087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MODEL TRAINING" sheetId="1" r:id="rId1"/>
+    <sheet name="SAHI RESULTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="44">
   <si>
     <t>Epochs</t>
   </si>
@@ -115,6 +116,57 @@
   </si>
   <si>
     <t>SGD(lr=0.01, momentum=0.9)</t>
+  </si>
+  <si>
+    <t>2.051 hours</t>
+  </si>
+  <si>
+    <t>1.332 hours</t>
+  </si>
+  <si>
+    <t>1.592 hours</t>
+  </si>
+  <si>
+    <t>Best results observed at epoch 249</t>
+  </si>
+  <si>
+    <t>3.807 hours</t>
+  </si>
+  <si>
+    <t>AdamW(lr=0.002, momentum=0.9), Best results observed at epoch 204</t>
+  </si>
+  <si>
+    <t>3.395 hours</t>
+  </si>
+  <si>
+    <t>1.082 hours</t>
+  </si>
+  <si>
+    <t>1.237 + xx hours</t>
+  </si>
+  <si>
+    <t>Best results observed at epoch 149</t>
+  </si>
+  <si>
+    <t>2.081 hours</t>
+  </si>
+  <si>
+    <t>SGD(lr=0.01, momentum=0.9), Best results observed at epoch 233</t>
+  </si>
+  <si>
+    <t>3.348 hours</t>
+  </si>
+  <si>
+    <t>0.625 hours</t>
+  </si>
+  <si>
+    <t>0.847 hours</t>
+  </si>
+  <si>
+    <t>1.901 hours</t>
+  </si>
+  <si>
+    <t>2.608 hours</t>
   </si>
 </sst>
 </file>
@@ -473,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,6 +768,21 @@
         <f t="shared" si="0"/>
         <v>yolov8n_100e_0p_32b_Adam_640x640_0.2</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.66800000000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -935,6 +1002,21 @@
         <f t="shared" ref="I15:I17" si="1">_xlfn.CONCAT(C15, "_", D15, "e_",E15, "p_",F15, "b_",G15, "_",A15,"_",B15)</f>
         <v>yolov8n_100e_0p_32b_auto_640x640_0.06</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.68300000000000005</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1019,6 +1101,21 @@
         <f t="shared" ref="I18:I23" si="2">_xlfn.CONCAT(C18, "_", D18, "e_",E18, "p_",F18, "b_",G18, "_",A18,"_",B18)</f>
         <v>yolov8n_100e_0p_16b_auto_640x640_0.06</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.67400000000000004</v>
+      </c>
       <c r="O18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1106,6 +1203,24 @@
         <f t="shared" si="2"/>
         <v>yolov8n_300e_50p_32b_auto_640x640_0.06</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1190,8 +1305,23 @@
         <f t="shared" ref="I24:I26" si="3">_xlfn.CONCAT(C24, "_", D24, "e_",E24, "p_",F24, "b_",G24, "_",A24,"_",B24)</f>
         <v>yolov8n_300e_50p_16b_auto_640x640_0.06</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.69299999999999995</v>
+      </c>
       <c r="O24" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1277,6 +1407,21 @@
         <f t="shared" ref="I28:I33" si="4">_xlfn.CONCAT(C28, "_", D28, "e_",E28, "p_",F28, "b_",G28, "_",A28,"_",B28)</f>
         <v>yolov8n_100e_0p_32b_auto_512x512_0.07</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.67300000000000004</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1361,6 +1506,21 @@
         <f t="shared" si="4"/>
         <v>yolov8n_100e_0p_16b_auto_512x512_0.07</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.69299999999999995</v>
+      </c>
       <c r="O31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1448,6 +1608,24 @@
         <f t="shared" ref="I34:I39" si="5">_xlfn.CONCAT(C34, "_", D34, "e_",E34, "p_",F34, "b_",G34, "_",A34,"_",B34)</f>
         <v>yolov8n_300e_50p_32b_auto_512x512_0.07</v>
       </c>
+      <c r="J34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1532,8 +1710,23 @@
         <f t="shared" si="5"/>
         <v>yolov8n_300e_50p_16b_auto_512x512_0.07</v>
       </c>
+      <c r="J37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.69899999999999995</v>
+      </c>
       <c r="O37" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -1619,6 +1812,21 @@
         <f t="shared" ref="I41:I52" si="6">_xlfn.CONCAT(C41, "_", D41, "e_",E41, "p_",F41, "b_",G41, "_",A41,"_",B41)</f>
         <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
       </c>
+      <c r="J41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.68100000000000005</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1703,6 +1911,21 @@
         <f t="shared" si="6"/>
         <v>yolov8n_100e_0p_16b_auto_320x320_0.12</v>
       </c>
+      <c r="J44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.68300000000000005</v>
+      </c>
       <c r="O44" s="1" t="s">
         <v>25</v>
       </c>
@@ -1790,6 +2013,21 @@
         <f t="shared" si="6"/>
         <v>yolov8n_300e_50p_32b_auto_320x320_0.12</v>
       </c>
+      <c r="J47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1873,6 +2111,21 @@
       <c r="I50" s="1" t="str">
         <f t="shared" si="6"/>
         <v>yolov8n_300e_50p_16b_auto_320x320_0.12</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.70499999999999996</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>26</v>
@@ -1952,4 +2205,733 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB8BBA-F777-4C48-8C69-C64C9161B5E1}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>_xlfn.CONCAT(C2, "_", D2, "e_",E2, "p_",F2, "b_",G2, "_",A2,"_",B2)</f>
+        <v>yolov8n_100e_0p_16b_auto_640x640_0.2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>_xlfn.CONCAT(C3, "_", D3, "e_",E3, "p_",F3, "b_",G3, "_",A3,"_",B3)</f>
+        <v>yolov8n_100e_0p_32b_auto_640x640_0.2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>_xlfn.CONCAT(C4, "_", D4, "e_",E4, "p_",F4, "b_",G4, "_",A4,"_",B4)</f>
+        <v>yolov8n_100e_0p_32b_Adam_640x640_0.2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>_xlfn.CONCAT(C5, "_", D5, "e_",E5, "p_",F5, "b_",G5, "_",A5,"_",B5)</f>
+        <v>yolov8n_100e_0p_32b_auto_640x640_0.06</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>_xlfn.CONCAT(C6, "_", D6, "e_",E6, "p_",F6, "b_",G6, "_",A6,"_",B6)</f>
+        <v>yolov8n_100e_0p_16b_auto_640x640_0.06</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>_xlfn.CONCAT(C7, "_", D7, "e_",E7, "p_",F7, "b_",G7, "_",A7,"_",B7)</f>
+        <v>yolov8n_300e_50p_32b_auto_640x640_0.06</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>300</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>_xlfn.CONCAT(C8, "_", D8, "e_",E8, "p_",F8, "b_",G8, "_",A8,"_",B8)</f>
+        <v>yolov8n_300e_50p_16b_auto_640x640_0.06</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>_xlfn.CONCAT(C9, "_", D9, "e_",E9, "p_",F9, "b_",G9, "_",A9,"_",B9)</f>
+        <v>yolov8n_100e_0p_32b_auto_512x512_0.07</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>_xlfn.CONCAT(C10, "_", D10, "e_",E10, "p_",F10, "b_",G10, "_",A10,"_",B10)</f>
+        <v>yolov8n_100e_0p_16b_auto_512x512_0.07</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>300</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>_xlfn.CONCAT(C11, "_", D11, "e_",E11, "p_",F11, "b_",G11, "_",A11,"_",B11)</f>
+        <v>yolov8n_300e_50p_32b_auto_512x512_0.07</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>300</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>_xlfn.CONCAT(C12, "_", D12, "e_",E12, "p_",F12, "b_",G12, "_",A12,"_",B12)</f>
+        <v>yolov8n_300e_50p_16b_auto_512x512_0.07</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>_xlfn.CONCAT(C13, "_", D13, "e_",E13, "p_",F13, "b_",G13, "_",A13,"_",B13)</f>
+        <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>_xlfn.CONCAT(C14, "_", D14, "e_",E14, "p_",F14, "b_",G14, "_",A14,"_",B14)</f>
+        <v>yolov8n_100e_0p_16b_auto_320x320_0.12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>300</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>_xlfn.CONCAT(C15, "_", D15, "e_",E15, "p_",F15, "b_",G15, "_",A15,"_",B15)</f>
+        <v>yolov8n_300e_50p_32b_auto_320x320_0.12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>300</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>_xlfn.CONCAT(C16, "_", D16, "e_",E16, "p_",F16, "b_",G16, "_",A16,"_",B16)</f>
+        <v>yolov8n_300e_50p_16b_auto_320x320_0.12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00FILES\Thesis2\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Japh\Documents\Thesis2\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FF4E2-02B9-49BA-B283-3E015624087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CA433A-3B8C-42F2-88FE-FB69A03D6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MODEL TRAINING" sheetId="1" r:id="rId1"/>
-    <sheet name="SAHI RESULTS" sheetId="2" r:id="rId2"/>
+    <sheet name="TRAINING RESULTS" sheetId="2" r:id="rId2"/>
+    <sheet name="VALIDATION RESULTS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="55">
   <si>
     <t>Epochs</t>
   </si>
@@ -167,6 +168,39 @@
   </si>
   <si>
     <t>2.608 hours</t>
+  </si>
+  <si>
+    <t>mAP</t>
+  </si>
+  <si>
+    <t>320 x 320</t>
+  </si>
+  <si>
+    <t>640 x 640</t>
+  </si>
+  <si>
+    <t>1280 x 1280</t>
+  </si>
+  <si>
+    <t>Inference Time</t>
+  </si>
+  <si>
+    <t>0.1 IOU</t>
+  </si>
+  <si>
+    <t>Extra training</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>AdamW</t>
+  </si>
+  <si>
+    <t>(lr=0.002, momentum=0.9)</t>
+  </si>
+  <si>
+    <t>1.143 hours</t>
   </si>
 </sst>
 </file>
@@ -221,10 +255,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1849,7 @@
         <v>11</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f t="shared" ref="I41:I52" si="6">_xlfn.CONCAT(C41, "_", D41, "e_",E41, "p_",F41, "b_",G41, "_",A41,"_",B41)</f>
+        <f t="shared" ref="I41:I56" si="6">_xlfn.CONCAT(C41, "_", D41, "e_",E41, "p_",F41, "b_",G41, "_",A41,"_",B41)</f>
         <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -2183,6 +2223,92 @@
       <c r="I52" s="1" t="str">
         <f t="shared" si="6"/>
         <v>yolov8n_300e_50p_16b_SGD_320x320_0.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>320</v>
+      </c>
+      <c r="B55" s="1">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>100</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>16</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_100e_0p_16b_AdamW_320_30</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>512</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>100</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yolov8n_100e_0p_16b_AdamW_512_20</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2211,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB8BBA-F777-4C48-8C69-C64C9161B5E1}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>_xlfn.CONCAT(C2, "_", D2, "e_",E2, "p_",F2, "b_",G2, "_",A2,"_",B2)</f>
+        <f t="shared" ref="H2:H16" si="0">_xlfn.CONCAT(C2, "_", D2, "e_",E2, "p_",F2, "b_",G2, "_",A2,"_",B2)</f>
         <v>yolov8n_100e_0p_16b_auto_640x640_0.2</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2342,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>_xlfn.CONCAT(C3, "_", D3, "e_",E3, "p_",F3, "b_",G3, "_",A3,"_",B3)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_100e_0p_32b_auto_640x640_0.2</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2384,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>_xlfn.CONCAT(C4, "_", D4, "e_",E4, "p_",F4, "b_",G4, "_",A4,"_",B4)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_100e_0p_32b_Adam_640x640_0.2</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -2426,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>_xlfn.CONCAT(C5, "_", D5, "e_",E5, "p_",F5, "b_",G5, "_",A5,"_",B5)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_100e_0p_32b_auto_640x640_0.06</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2468,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>_xlfn.CONCAT(C6, "_", D6, "e_",E6, "p_",F6, "b_",G6, "_",A6,"_",B6)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_100e_0p_16b_auto_640x640_0.06</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2513,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>_xlfn.CONCAT(C7, "_", D7, "e_",E7, "p_",F7, "b_",G7, "_",A7,"_",B7)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_300e_50p_32b_auto_640x640_0.06</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2558,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>_xlfn.CONCAT(C8, "_", D8, "e_",E8, "p_",F8, "b_",G8, "_",A8,"_",B8)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_300e_50p_16b_auto_640x640_0.06</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2603,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>_xlfn.CONCAT(C9, "_", D9, "e_",E9, "p_",F9, "b_",G9, "_",A9,"_",B9)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_100e_0p_32b_auto_512x512_0.07</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2645,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>_xlfn.CONCAT(C10, "_", D10, "e_",E10, "p_",F10, "b_",G10, "_",A10,"_",B10)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_100e_0p_16b_auto_512x512_0.07</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2690,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>_xlfn.CONCAT(C11, "_", D11, "e_",E11, "p_",F11, "b_",G11, "_",A11,"_",B11)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_300e_50p_32b_auto_512x512_0.07</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2735,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>_xlfn.CONCAT(C12, "_", D12, "e_",E12, "p_",F12, "b_",G12, "_",A12,"_",B12)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_300e_50p_16b_auto_512x512_0.07</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2780,7 +2906,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>_xlfn.CONCAT(C13, "_", D13, "e_",E13, "p_",F13, "b_",G13, "_",A13,"_",B13)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -2822,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>_xlfn.CONCAT(C14, "_", D14, "e_",E14, "p_",F14, "b_",G14, "_",A14,"_",B14)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_100e_0p_16b_auto_320x320_0.12</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -2867,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>_xlfn.CONCAT(C15, "_", D15, "e_",E15, "p_",F15, "b_",G15, "_",A15,"_",B15)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_300e_50p_32b_auto_320x320_0.12</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -2909,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>_xlfn.CONCAT(C16, "_", D16, "e_",E16, "p_",F16, "b_",G16, "_",A16,"_",B16)</f>
+        <f t="shared" si="0"/>
         <v>yolov8n_300e_50p_16b_auto_320x320_0.12</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -2934,4 +3060,1941 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A667BE4F-E122-4084-B77F-56CF0E05AB3B}">
+  <dimension ref="A1:W33"/>
+  <sheetViews>
+    <sheetView topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H17" si="0">_xlfn.CONCAT(C3, "_", D3, "e_",E3, "p_",F3, "b_",G3, "_",A3,"_",B3)</f>
+        <v>yolov8n_100e_0p_16b_auto_640x640_0.2</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3">
+        <v>0.48</v>
+      </c>
+      <c r="K3">
+        <v>0.76</v>
+      </c>
+      <c r="L3">
+        <v>0.65</v>
+      </c>
+      <c r="M3">
+        <v>0.41</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3">
+        <v>0.85</v>
+      </c>
+      <c r="P3">
+        <v>0.85</v>
+      </c>
+      <c r="Q3">
+        <v>0.82</v>
+      </c>
+      <c r="R3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3">
+        <v>0.86</v>
+      </c>
+      <c r="U3">
+        <v>0.68</v>
+      </c>
+      <c r="V3">
+        <v>0.64</v>
+      </c>
+      <c r="W3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_100e_0p_32b_auto_640x640_0.2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4">
+        <v>0.35</v>
+      </c>
+      <c r="K4">
+        <v>0.82</v>
+      </c>
+      <c r="L4">
+        <v>0.67</v>
+      </c>
+      <c r="M4">
+        <v>0.43</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4">
+        <v>0.76</v>
+      </c>
+      <c r="P4">
+        <v>0.86</v>
+      </c>
+      <c r="Q4">
+        <v>0.83</v>
+      </c>
+      <c r="R4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4">
+        <v>0.85</v>
+      </c>
+      <c r="U4">
+        <v>0.76</v>
+      </c>
+      <c r="V4">
+        <v>0.73</v>
+      </c>
+      <c r="W4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_100e_0p_32b_Adam_640x640_0.2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5">
+        <v>0.49</v>
+      </c>
+      <c r="K5">
+        <v>0.71</v>
+      </c>
+      <c r="L5">
+        <v>0.54</v>
+      </c>
+      <c r="M5">
+        <v>0.32</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5">
+        <v>0.82</v>
+      </c>
+      <c r="P5">
+        <v>0.82</v>
+      </c>
+      <c r="Q5">
+        <v>0.77</v>
+      </c>
+      <c r="R5">
+        <v>0.51</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5">
+        <v>0.83</v>
+      </c>
+      <c r="U5">
+        <v>0.65</v>
+      </c>
+      <c r="V5">
+        <v>0.61</v>
+      </c>
+      <c r="W5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_100e_0p_32b_auto_640x640_0.06</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6">
+        <v>0.42</v>
+      </c>
+      <c r="K6">
+        <v>0.72</v>
+      </c>
+      <c r="L6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M6">
+        <v>0.38</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6">
+        <v>0.72</v>
+      </c>
+      <c r="P6">
+        <v>0.84</v>
+      </c>
+      <c r="Q6">
+        <v>0.78</v>
+      </c>
+      <c r="R6">
+        <v>0.53</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6">
+        <v>0.83</v>
+      </c>
+      <c r="U6">
+        <v>0.73</v>
+      </c>
+      <c r="V6">
+        <v>0.67</v>
+      </c>
+      <c r="W6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_100e_0p_16b_auto_640x640_0.06</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7">
+        <v>0.38</v>
+      </c>
+      <c r="K7">
+        <v>0.82</v>
+      </c>
+      <c r="L7">
+        <v>0.62</v>
+      </c>
+      <c r="M7">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7">
+        <v>0.79</v>
+      </c>
+      <c r="P7">
+        <v>0.84</v>
+      </c>
+      <c r="Q7">
+        <v>0.79</v>
+      </c>
+      <c r="R7">
+        <v>0.53</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7">
+        <v>0.84</v>
+      </c>
+      <c r="U7">
+        <v>0.69</v>
+      </c>
+      <c r="V7">
+        <v>0.65</v>
+      </c>
+      <c r="W7">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>300</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_300e_50p_32b_auto_640x640_0.06</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8">
+        <v>0.37</v>
+      </c>
+      <c r="K8">
+        <v>0.75</v>
+      </c>
+      <c r="L8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.37</v>
+      </c>
+      <c r="O8">
+        <v>0.83</v>
+      </c>
+      <c r="P8">
+        <v>0.82</v>
+      </c>
+      <c r="Q8">
+        <v>0.78</v>
+      </c>
+      <c r="R8">
+        <v>0.53</v>
+      </c>
+      <c r="T8">
+        <v>0.83</v>
+      </c>
+      <c r="U8">
+        <v>0.71</v>
+      </c>
+      <c r="V8">
+        <v>0.67</v>
+      </c>
+      <c r="W8">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>300</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_300e_50p_16b_auto_640x640_0.06</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9">
+        <v>0.43</v>
+      </c>
+      <c r="K9">
+        <v>0.75</v>
+      </c>
+      <c r="L9">
+        <v>0.6</v>
+      </c>
+      <c r="M9">
+        <v>0.37</v>
+      </c>
+      <c r="O9">
+        <v>0.8</v>
+      </c>
+      <c r="P9">
+        <v>0.84</v>
+      </c>
+      <c r="Q9">
+        <v>0.79</v>
+      </c>
+      <c r="R9">
+        <v>0.52</v>
+      </c>
+      <c r="T9">
+        <v>0.87</v>
+      </c>
+      <c r="U9">
+        <v>0.76</v>
+      </c>
+      <c r="V9">
+        <v>0.7</v>
+      </c>
+      <c r="W9">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_100e_0p_32b_auto_512x512_0.07</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10">
+        <v>0.48</v>
+      </c>
+      <c r="K10">
+        <v>0.85</v>
+      </c>
+      <c r="L10">
+        <v>0.76</v>
+      </c>
+      <c r="M10">
+        <v>0.49</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10">
+        <v>0.78</v>
+      </c>
+      <c r="P10">
+        <v>0.81</v>
+      </c>
+      <c r="Q10">
+        <v>0.76</v>
+      </c>
+      <c r="R10">
+        <v>0.51</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10">
+        <v>0.73</v>
+      </c>
+      <c r="U10">
+        <v>0.59</v>
+      </c>
+      <c r="V10">
+        <v>0.52</v>
+      </c>
+      <c r="W10">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_100e_0p_16b_auto_512x512_0.07</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11">
+        <v>0.59</v>
+      </c>
+      <c r="K11">
+        <v>0.86</v>
+      </c>
+      <c r="L11">
+        <v>0.79</v>
+      </c>
+      <c r="M11">
+        <v>0.52</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11">
+        <v>0.76</v>
+      </c>
+      <c r="P11">
+        <v>0.86</v>
+      </c>
+      <c r="Q11">
+        <v>0.81</v>
+      </c>
+      <c r="R11">
+        <v>0.53</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11">
+        <v>0.79</v>
+      </c>
+      <c r="U11">
+        <v>0.63</v>
+      </c>
+      <c r="V11">
+        <v>0.54</v>
+      </c>
+      <c r="W11">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>300</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_300e_50p_32b_auto_512x512_0.07</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>0.83</v>
+      </c>
+      <c r="L12">
+        <v>0.75</v>
+      </c>
+      <c r="M12">
+        <v>0.48</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12">
+        <v>0.78</v>
+      </c>
+      <c r="P12">
+        <v>0.8</v>
+      </c>
+      <c r="Q12">
+        <v>0.76</v>
+      </c>
+      <c r="R12">
+        <v>0.49</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12">
+        <v>0.76</v>
+      </c>
+      <c r="U12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>0.43</v>
+      </c>
+      <c r="W12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>300</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_300e_50p_16b_auto_512x512_0.07</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13">
+        <v>0.53</v>
+      </c>
+      <c r="K13">
+        <v>0.85</v>
+      </c>
+      <c r="L13">
+        <v>0.76</v>
+      </c>
+      <c r="M13">
+        <v>0.51</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13">
+        <v>0.79</v>
+      </c>
+      <c r="P13">
+        <v>0.83</v>
+      </c>
+      <c r="Q13">
+        <v>0.77</v>
+      </c>
+      <c r="R13">
+        <v>0.51</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13">
+        <v>0.78</v>
+      </c>
+      <c r="U13">
+        <v>0.51</v>
+      </c>
+      <c r="V13">
+        <v>0.43</v>
+      </c>
+      <c r="W13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14">
+        <v>0.45</v>
+      </c>
+      <c r="K14">
+        <v>0.86</v>
+      </c>
+      <c r="L14">
+        <v>0.78</v>
+      </c>
+      <c r="M14">
+        <v>0.51</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14">
+        <v>0.65</v>
+      </c>
+      <c r="P14">
+        <v>0.66</v>
+      </c>
+      <c r="Q14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R14">
+        <v>0.33</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V14">
+        <v>0.02</v>
+      </c>
+      <c r="W14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_100e_0p_16b_auto_320x320_0.12</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15">
+        <v>0.46</v>
+      </c>
+      <c r="K15">
+        <v>0.86</v>
+      </c>
+      <c r="L15">
+        <v>0.76</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15">
+        <v>0.72</v>
+      </c>
+      <c r="P15">
+        <v>0.66</v>
+      </c>
+      <c r="Q15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R15">
+        <v>0.32</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15">
+        <v>0.41</v>
+      </c>
+      <c r="U15">
+        <v>0.09</v>
+      </c>
+      <c r="V15">
+        <v>0.04</v>
+      </c>
+      <c r="W15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>300</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_300e_50p_32b_auto_320x320_0.12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16">
+        <v>0.44</v>
+      </c>
+      <c r="K16">
+        <v>0.85</v>
+      </c>
+      <c r="L16">
+        <v>0.77</v>
+      </c>
+      <c r="M16">
+        <v>0.51</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16">
+        <v>0.68</v>
+      </c>
+      <c r="P16">
+        <v>0.68</v>
+      </c>
+      <c r="Q16">
+        <v>0.61</v>
+      </c>
+      <c r="R16">
+        <v>0.35</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16">
+        <v>0.32</v>
+      </c>
+      <c r="U16">
+        <v>0.08</v>
+      </c>
+      <c r="V16">
+        <v>0.03</v>
+      </c>
+      <c r="W16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>300</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yolov8n_300e_50p_16b_auto_320x320_0.12</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17">
+        <v>0.47</v>
+      </c>
+      <c r="K17">
+        <v>0.84</v>
+      </c>
+      <c r="L17">
+        <v>0.74</v>
+      </c>
+      <c r="M17">
+        <v>0.49</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17">
+        <v>0.72</v>
+      </c>
+      <c r="P17">
+        <v>0.66</v>
+      </c>
+      <c r="Q17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R17">
+        <v>0.34</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17">
+        <v>0.37</v>
+      </c>
+      <c r="U17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V17">
+        <v>0.03</v>
+      </c>
+      <c r="W17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" ref="H19:H33" si="1">_xlfn.CONCAT(C19, "_", D19, "e_",E19, "p_",F19, "b_",G19, "_",A19,"_",B19)</f>
+        <v>yolov8n_100e_0p_16b_auto_640x640_0.2</v>
+      </c>
+      <c r="J19">
+        <v>0.52</v>
+      </c>
+      <c r="K19">
+        <v>0.82</v>
+      </c>
+      <c r="L19">
+        <v>0.71</v>
+      </c>
+      <c r="O19">
+        <v>0.84</v>
+      </c>
+      <c r="P19">
+        <v>0.88</v>
+      </c>
+      <c r="Q19">
+        <v>0.84</v>
+      </c>
+      <c r="T19">
+        <v>0.89</v>
+      </c>
+      <c r="U19">
+        <v>0.7</v>
+      </c>
+      <c r="V19">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_100e_0p_32b_auto_640x640_0.2</v>
+      </c>
+      <c r="J20">
+        <v>0.38</v>
+      </c>
+      <c r="K20">
+        <v>0.88</v>
+      </c>
+      <c r="L20">
+        <v>0.73</v>
+      </c>
+      <c r="O20">
+        <v>0.78</v>
+      </c>
+      <c r="P20">
+        <v>0.88</v>
+      </c>
+      <c r="Q20">
+        <v>0.85</v>
+      </c>
+      <c r="T20">
+        <v>0.87</v>
+      </c>
+      <c r="U20">
+        <v>0.79</v>
+      </c>
+      <c r="V20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_100e_0p_32b_Adam_640x640_0.2</v>
+      </c>
+      <c r="J21">
+        <v>0.54</v>
+      </c>
+      <c r="K21">
+        <v>0.77</v>
+      </c>
+      <c r="L21">
+        <v>0.61</v>
+      </c>
+      <c r="O21">
+        <v>0.85</v>
+      </c>
+      <c r="P21">
+        <v>0.84</v>
+      </c>
+      <c r="Q21">
+        <v>0.81</v>
+      </c>
+      <c r="T21">
+        <v>0.87</v>
+      </c>
+      <c r="U21">
+        <v>0.69</v>
+      </c>
+      <c r="V21">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_100e_0p_32b_auto_640x640_0.06</v>
+      </c>
+      <c r="J22">
+        <v>0.47</v>
+      </c>
+      <c r="K22">
+        <v>0.8</v>
+      </c>
+      <c r="L22">
+        <v>0.66</v>
+      </c>
+      <c r="O22">
+        <v>0.75</v>
+      </c>
+      <c r="P22">
+        <v>0.86</v>
+      </c>
+      <c r="Q22">
+        <v>0.82</v>
+      </c>
+      <c r="T22">
+        <v>0.86</v>
+      </c>
+      <c r="U22">
+        <v>0.75</v>
+      </c>
+      <c r="V22">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_100e_0p_16b_auto_640x640_0.06</v>
+      </c>
+      <c r="J23">
+        <v>0.4</v>
+      </c>
+      <c r="K23">
+        <v>0.86</v>
+      </c>
+      <c r="L23">
+        <v>0.66</v>
+      </c>
+      <c r="O23">
+        <v>0.81</v>
+      </c>
+      <c r="P23">
+        <v>0.86</v>
+      </c>
+      <c r="Q23">
+        <v>0.82</v>
+      </c>
+      <c r="T23">
+        <v>0.88</v>
+      </c>
+      <c r="U23">
+        <v>0.73</v>
+      </c>
+      <c r="V23">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>300</v>
+      </c>
+      <c r="E24" s="1">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_300e_50p_32b_auto_640x640_0.06</v>
+      </c>
+      <c r="J24">
+        <v>0.4</v>
+      </c>
+      <c r="K24">
+        <v>0.81</v>
+      </c>
+      <c r="L24">
+        <v>0.63</v>
+      </c>
+      <c r="O24">
+        <v>0.86</v>
+      </c>
+      <c r="P24">
+        <v>0.84</v>
+      </c>
+      <c r="Q24">
+        <v>0.82</v>
+      </c>
+      <c r="T24">
+        <v>0.86</v>
+      </c>
+      <c r="U24">
+        <v>0.73</v>
+      </c>
+      <c r="V24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>300</v>
+      </c>
+      <c r="E25" s="1">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_300e_50p_16b_auto_640x640_0.06</v>
+      </c>
+      <c r="J25">
+        <v>0.46</v>
+      </c>
+      <c r="K25">
+        <v>0.8</v>
+      </c>
+      <c r="L25">
+        <v>0.65</v>
+      </c>
+      <c r="O25">
+        <v>0.82</v>
+      </c>
+      <c r="P25">
+        <v>0.86</v>
+      </c>
+      <c r="Q25">
+        <v>0.83</v>
+      </c>
+      <c r="T25">
+        <v>0.89</v>
+      </c>
+      <c r="U25">
+        <v>0.78</v>
+      </c>
+      <c r="V25">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>100</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_100e_0p_32b_auto_512x512_0.07</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>0.89</v>
+      </c>
+      <c r="L26">
+        <v>0.79</v>
+      </c>
+      <c r="O26">
+        <v>0.8</v>
+      </c>
+      <c r="P26">
+        <v>0.83</v>
+      </c>
+      <c r="Q26">
+        <v>0.79</v>
+      </c>
+      <c r="T26">
+        <v>0.79</v>
+      </c>
+      <c r="U26">
+        <v>0.64</v>
+      </c>
+      <c r="V26">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_100e_0p_16b_auto_512x512_0.07</v>
+      </c>
+      <c r="J27">
+        <v>0.61</v>
+      </c>
+      <c r="K27">
+        <v>0.9</v>
+      </c>
+      <c r="L27">
+        <v>0.84</v>
+      </c>
+      <c r="O27">
+        <v>0.78</v>
+      </c>
+      <c r="P27">
+        <v>0.89</v>
+      </c>
+      <c r="Q27">
+        <v>0.84</v>
+      </c>
+      <c r="T27">
+        <v>0.86</v>
+      </c>
+      <c r="U27">
+        <v>0.69</v>
+      </c>
+      <c r="V27">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>300</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_300e_50p_32b_auto_512x512_0.07</v>
+      </c>
+      <c r="J28">
+        <v>0.53</v>
+      </c>
+      <c r="K28">
+        <v>0.88</v>
+      </c>
+      <c r="L28">
+        <v>0.78</v>
+      </c>
+      <c r="O28">
+        <v>0.81</v>
+      </c>
+      <c r="P28">
+        <v>0.83</v>
+      </c>
+      <c r="Q28">
+        <v>0.79</v>
+      </c>
+      <c r="T28">
+        <v>0.85</v>
+      </c>
+      <c r="U28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V28">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>300</v>
+      </c>
+      <c r="E29" s="1">
+        <v>50</v>
+      </c>
+      <c r="F29" s="1">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_300e_50p_16b_auto_512x512_0.07</v>
+      </c>
+      <c r="J29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K29">
+        <v>0.89</v>
+      </c>
+      <c r="L29">
+        <v>0.81</v>
+      </c>
+      <c r="O29">
+        <v>0.8</v>
+      </c>
+      <c r="P29">
+        <v>0.85</v>
+      </c>
+      <c r="Q29">
+        <v>0.8</v>
+      </c>
+      <c r="T29">
+        <v>0.87</v>
+      </c>
+      <c r="U29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V29">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
+      </c>
+      <c r="J30">
+        <v>0.46</v>
+      </c>
+      <c r="K30">
+        <v>0.88</v>
+      </c>
+      <c r="L30">
+        <v>0.81</v>
+      </c>
+      <c r="O30">
+        <v>0.67</v>
+      </c>
+      <c r="P30">
+        <v>0.69</v>
+      </c>
+      <c r="Q30">
+        <v>0.6</v>
+      </c>
+      <c r="T30">
+        <v>0.52</v>
+      </c>
+      <c r="U30">
+        <v>0.13</v>
+      </c>
+      <c r="V30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_100e_0p_16b_auto_320x320_0.12</v>
+      </c>
+      <c r="J31">
+        <v>0.48</v>
+      </c>
+      <c r="K31">
+        <v>0.89</v>
+      </c>
+      <c r="L31">
+        <v>0.79</v>
+      </c>
+      <c r="O31">
+        <v>0.76</v>
+      </c>
+      <c r="P31">
+        <v>0.69</v>
+      </c>
+      <c r="Q31">
+        <v>0.62</v>
+      </c>
+      <c r="T31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U31">
+        <v>0.12</v>
+      </c>
+      <c r="V31">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>300</v>
+      </c>
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1">
+        <v>32</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_300e_50p_32b_auto_320x320_0.12</v>
+      </c>
+      <c r="J32">
+        <v>0.45</v>
+      </c>
+      <c r="K32">
+        <v>0.87</v>
+      </c>
+      <c r="L32">
+        <v>0.78</v>
+      </c>
+      <c r="O32">
+        <v>0.71</v>
+      </c>
+      <c r="P32">
+        <v>0.71</v>
+      </c>
+      <c r="Q32">
+        <v>0.65</v>
+      </c>
+      <c r="T32">
+        <v>0.6</v>
+      </c>
+      <c r="U32">
+        <v>0.15</v>
+      </c>
+      <c r="V32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>300</v>
+      </c>
+      <c r="E33" s="1">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_300e_50p_16b_auto_320x320_0.12</v>
+      </c>
+      <c r="J33">
+        <v>0.49</v>
+      </c>
+      <c r="K33">
+        <v>0.87</v>
+      </c>
+      <c r="L33">
+        <v>0.78</v>
+      </c>
+      <c r="O33">
+        <v>0.74</v>
+      </c>
+      <c r="P33">
+        <v>0.86</v>
+      </c>
+      <c r="Q33">
+        <v>0.62</v>
+      </c>
+      <c r="T33">
+        <v>0.69</v>
+      </c>
+      <c r="U33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V33">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="I18:W18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Japh\Documents\Thesis2\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CA433A-3B8C-42F2-88FE-FB69A03D6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E420A6-27B4-4014-AF26-FBEE173A477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="56">
   <si>
     <t>Epochs</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>1.143 hours</t>
+  </si>
+  <si>
+    <t>1.614 hours</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -563,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2301,13 +2321,61 @@
         <v>52</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f>_xlfn.CONCAT(C56, "_", D56, "e_",E56, "p_",F56, "b_",G56, "_",A56,"_",B56)</f>
+        <v>yolov8n_100e_0p_16b_AdamW_512_20</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>512</v>
+      </c>
+      <c r="B57" s="1">
+        <v>20</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>300</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I56" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>yolov8n_100e_0p_16b_AdamW_512_20</v>
-      </c>
-      <c r="O56" s="1" t="s">
+      <c r="I57" s="1" t="str">
+        <f>_xlfn.CONCAT(C57, "_", D57, "e_",E57, "p_",F57, "b_",G57, "_",A57,"_",B57)</f>
+        <v>yolov8n_300e_0p_16b_AdamW_512_20</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3064,10 +3132,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A667BE4F-E122-4084-B77F-56CF0E05AB3B}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4200,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" ref="H19:H33" si="1">_xlfn.CONCAT(C19, "_", D19, "e_",E19, "p_",F19, "b_",G19, "_",A19,"_",B19)</f>
+        <f t="shared" ref="H19:H35" si="1">_xlfn.CONCAT(C19, "_", D19, "e_",E19, "p_",F19, "b_",G19, "_",A19,"_",B19)</f>
         <v>yolov8n_100e_0p_16b_auto_640x640_0.2</v>
       </c>
       <c r="J19">
@@ -4985,6 +5053,63 @@
       </c>
       <c r="V33">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>320</v>
+      </c>
+      <c r="B35" s="1">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>yolov8n_100e_0p_16b_AdamW_320_30</v>
+      </c>
+      <c r="J35">
+        <v>0.48</v>
+      </c>
+      <c r="K35">
+        <v>0.89</v>
+      </c>
+      <c r="L35">
+        <v>0.8</v>
+      </c>
+      <c r="O35">
+        <v>0.78</v>
+      </c>
+      <c r="P35">
+        <v>0.68</v>
+      </c>
+      <c r="Q35">
+        <v>0.62</v>
+      </c>
+      <c r="T35">
+        <v>0.62</v>
+      </c>
+      <c r="U35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V35">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Japh\Documents\Thesis2\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E420A6-27B4-4014-AF26-FBEE173A477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B6F588-01B5-423F-AAAB-BE13ED9D3354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="MODEL TRAINING" sheetId="1" r:id="rId1"/>
     <sheet name="TRAINING RESULTS" sheetId="2" r:id="rId2"/>
     <sheet name="VALIDATION RESULTS" sheetId="3" r:id="rId3"/>
+    <sheet name="Comparison" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="80">
   <si>
     <t>Epochs</t>
   </si>
@@ -191,9 +192,6 @@
     <t>Extra training</t>
   </si>
   <si>
-    <t>Training</t>
-  </si>
-  <si>
     <t>AdamW</t>
   </si>
   <si>
@@ -204,6 +202,81 @@
   </si>
   <si>
     <t>1.614 hours</t>
+  </si>
+  <si>
+    <t>Deep Learning Approach in Aerial Imagery for Supporting Land Search and Rescue Missions (Božić-Štulić et al., 2019)</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Faster R-CNN</t>
+  </si>
+  <si>
+    <t>Their proposed model (Saliency-based RPN)</t>
+  </si>
+  <si>
+    <t>This study</t>
+  </si>
+  <si>
+    <t>YoloV8 (yolov8n_100e_0p_16b_AdamW_320_30) + SAHI (320x320 with 20% overlap)</t>
+  </si>
+  <si>
+    <t>YoloV8 (yolov8n_100e_0p_16b_AdamW_512_07) + SAHI (640x640 with 20% overlap)</t>
+  </si>
+  <si>
+    <t>Mean-Shift Model</t>
+  </si>
+  <si>
+    <t>Two-stage segmentation of aerial images for search and rescue (Turić et al., 2010)</t>
+  </si>
+  <si>
+    <t>1.89s (Nvidia Titan)</t>
+  </si>
+  <si>
+    <t>2.03s (Nvidia T4)</t>
+  </si>
+  <si>
+    <t>4.08s (Nvidia T4)</t>
+  </si>
+  <si>
+    <t>Real time object detection for aerial search and rescue missions for missing persons (Domozi et al., 2020)</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Detecting Humans in Search and Rescue Operations Based on Ensemble Learning (Dousai and Lončarić, 2022)</t>
+  </si>
+  <si>
+    <t>EfficientDET + Bi-FPN and FC-FPN</t>
+  </si>
+  <si>
+    <t>Multimodel Deep Learning for Person Detection in Aerial Images (Vasić and Papić, 2020)</t>
+  </si>
+  <si>
+    <t>RFC (RPN + FPN + Classification)</t>
+  </si>
+  <si>
+    <t>&lt;15s (MultiGPU) (4x NVIDIA GeForce GTX 1080Ti Turbo)</t>
+  </si>
+  <si>
+    <t>2.75 hours + 2.048 hours</t>
+  </si>
+  <si>
+    <t>2.507 hours</t>
+  </si>
+  <si>
+    <t>2.676 hours</t>
+  </si>
+  <si>
+    <t>3.25 hours + 1.184 hours</t>
+  </si>
+  <si>
+    <t>3.5 hours + 0.678 hours</t>
   </si>
 </sst>
 </file>
@@ -258,10 +331,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,24 +350,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -583,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f t="shared" ref="I41:I56" si="6">_xlfn.CONCAT(C41, "_", D41, "e_",E41, "p_",F41, "b_",G41, "_",A41,"_",B41)</f>
+        <f t="shared" ref="I41:I55" si="6">_xlfn.CONCAT(C41, "_", D41, "e_",E41, "p_",F41, "b_",G41, "_",A41,"_",B41)</f>
         <v>yolov8n_100e_0p_32b_auto_320x320_0.12</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -2270,7 +2331,7 @@
         <v>16</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>11</v>
@@ -2280,7 +2341,7 @@
         <v>yolov8n_100e_0p_16b_AdamW_320_30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K55" s="1">
         <v>0.94899999999999995</v>
@@ -2295,7 +2356,7 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -2318,17 +2379,17 @@
         <v>16</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>_xlfn.CONCAT(C56, "_", D56, "e_",E56, "p_",F56, "b_",G56, "_",A56,"_",B56)</f>
+        <f t="shared" ref="I56:I61" si="7">_xlfn.CONCAT(C56, "_", D56, "e_",E56, "p_",F56, "b_",G56, "_",A56,"_",B56)</f>
         <v>yolov8n_100e_0p_16b_AdamW_512_20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K56" s="1">
         <v>0.93100000000000005</v>
@@ -2343,7 +2404,7 @@
         <v>0.71</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -2366,17 +2427,224 @@
         <v>16</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>yolov8n_300e_0p_16b_AdamW_512_20</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>320</v>
+      </c>
+      <c r="B58" s="1">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>300</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>64</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I57" s="1" t="str">
-        <f>_xlfn.CONCAT(C57, "_", D57, "e_",E57, "p_",F57, "b_",G57, "_",A57,"_",B57)</f>
-        <v>yolov8n_300e_0p_16b_AdamW_512_20</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>53</v>
+      <c r="H58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>yolov8n_300e_0p_64b_AdamW_320_30</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>320</v>
+      </c>
+      <c r="B59" s="1">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1">
+        <v>300</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>64</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>yolov8n_300e_0p_64b_SGD_320_30</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>512</v>
+      </c>
+      <c r="B60" s="1">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1">
+        <v>300</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>64</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>yolov8n_300e_0p_64b_SGD_512_20</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>512</v>
+      </c>
+      <c r="B61" s="1">
+        <v>20</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1">
+        <v>300</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>64</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>yolov8n_300e_0p_64b_AdamW_512_20</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +2674,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3132,10 +3400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A667BE4F-E122-4084-B77F-56CF0E05AB3B}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,27 +3415,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4227,23 +4495,23 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -5078,7 +5346,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5110,6 +5378,60 @@
       </c>
       <c r="V35">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>512</v>
+      </c>
+      <c r="B36" s="1">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>16</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>_xlfn.CONCAT(C36, "_", D36, "e_",E36, "p_",F36, "b_",G36, "_",A36,"_",B36)</f>
+        <v>yolov8n_100e_0p_16b_AdamW_512_20</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
+      </c>
+      <c r="K36">
+        <v>0.88</v>
+      </c>
+      <c r="L36">
+        <v>0.8</v>
+      </c>
+      <c r="O36">
+        <v>0.87</v>
+      </c>
+      <c r="P36">
+        <v>0.86</v>
+      </c>
+      <c r="Q36">
+        <v>0.83</v>
+      </c>
+      <c r="T36">
+        <v>0.88</v>
+      </c>
+      <c r="U36">
+        <v>0.53</v>
+      </c>
+      <c r="V36">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -5122,4 +5444,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CC2AE3-B00E-4CC9-831E-C9292D643A09}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.187</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.95109999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Japh\Documents\Thesis2\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B6F588-01B5-423F-AAAB-BE13ED9D3354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC65DDCF-2017-4532-94E7-6AFB15F80940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="82">
   <si>
     <t>Epochs</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>3.5 hours + 0.678 hours</t>
+  </si>
+  <si>
+    <t>3.28 hours + 2.419 hours</t>
+  </si>
+  <si>
+    <t>3.3 hours + 2.340 hours</t>
   </si>
 </sst>
 </file>
@@ -644,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2391,7 @@
         <v>11</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f t="shared" ref="I56:I61" si="7">_xlfn.CONCAT(C56, "_", D56, "e_",E56, "p_",F56, "b_",G56, "_",A56,"_",B56)</f>
+        <f t="shared" ref="I56:I63" si="7">_xlfn.CONCAT(C56, "_", D56, "e_",E56, "p_",F56, "b_",G56, "_",A56,"_",B56)</f>
         <v>yolov8n_100e_0p_16b_AdamW_512_20</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -2644,6 +2650,102 @@
         <v>0.73899999999999999</v>
       </c>
       <c r="O61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>640</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1">
+        <v>300</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>64</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>yolov8n_300e_0p_64b_SGD_640_20</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>640</v>
+      </c>
+      <c r="B63" s="1">
+        <v>20</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1">
+        <v>300</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>64</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>yolov8n_300e_0p_64b_AdamW_640_20</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>52</v>
       </c>
     </row>
